--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1816989.444211391</v>
+        <v>1816588.356594302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>31.82083855614263</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>311.9616847995128</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>88.8661156507799</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>99.4496495115546</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>163.5772149462778</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>100.20406039582</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>153.5576499441408</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>88.8661156507799</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>108.2792179877547</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>50.77333445464502</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>252.0018324189977</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -1181,25 +1181,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.5174574510363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>109.0340222754728</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>101.9520533428174</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>61.72400032816224</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.181958599057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.1932755567387</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.52616106461605</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E11" t="n">
-        <v>280.9167171711722</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0885332591494</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0218011565719</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5497625363334</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127950997</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.4355400921676</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>223.6883358392361</v>
       </c>
       <c r="W11" t="n">
-        <v>248.988435317193</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X11" t="n">
-        <v>268.2886935499396</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,13 +1458,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>44.38194387159498</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>9.973562680739127</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.79866947375405</v>
+        <v>71.7986694737541</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915453</v>
+        <v>57.99866431915459</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.62002871673297</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251237</v>
+        <v>40.56777857251242</v>
       </c>
       <c r="F13" t="n">
-        <v>41.03470290069868</v>
+        <v>41.03470290069873</v>
       </c>
       <c r="G13" t="n">
-        <v>57.30940562204651</v>
+        <v>57.30940562204657</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473693</v>
+        <v>47.85777324473699</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956628</v>
+        <v>32.83986842956634</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.10541804798359</v>
+        <v>38.10541804798365</v>
       </c>
       <c r="S13" t="n">
-        <v>101.6515194465673</v>
+        <v>101.6515194465674</v>
       </c>
       <c r="T13" t="n">
-        <v>78.88820320070741</v>
+        <v>120.926018128696</v>
       </c>
       <c r="U13" t="n">
-        <v>174.3971915920091</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2068058733796</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W13" t="n">
-        <v>173.3736919439929</v>
+        <v>173.373691943993</v>
       </c>
       <c r="X13" t="n">
-        <v>119.018793939796</v>
+        <v>35.36095029507322</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.8936616958637</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.1819585990569</v>
+        <v>280.1819585990571</v>
       </c>
       <c r="C14" t="n">
-        <v>268.1932755567386</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.1745796012668</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711721</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F14" t="n">
-        <v>300.0885332591493</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G14" t="n">
-        <v>9.781834803789494</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5719161348817</v>
+        <v>185.3390810547631</v>
       </c>
       <c r="I14" t="n">
-        <v>61.1678812795099</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.43554009216753</v>
+        <v>75.43554009216768</v>
       </c>
       <c r="T14" t="n">
-        <v>112.1942112825169</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9884353171929</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499395</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.6852913461383</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891892</v>
       </c>
       <c r="H15" t="n">
-        <v>77.67202513757874</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.79866947375398</v>
+        <v>71.79866947375413</v>
       </c>
       <c r="C16" t="n">
-        <v>57.99866431915446</v>
+        <v>57.99866431915461</v>
       </c>
       <c r="D16" t="n">
-        <v>41.62002871673285</v>
+        <v>41.620028716733</v>
       </c>
       <c r="E16" t="n">
-        <v>40.5677785725123</v>
+        <v>40.56777857251245</v>
       </c>
       <c r="F16" t="n">
-        <v>41.0347029006986</v>
+        <v>41.03470290069876</v>
       </c>
       <c r="G16" t="n">
-        <v>57.30940562204644</v>
+        <v>57.3094056220466</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473686</v>
+        <v>47.85777324473702</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956621</v>
+        <v>32.83986842956637</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798352</v>
+        <v>38.10541804798368</v>
       </c>
       <c r="S16" t="n">
-        <v>101.6515194465673</v>
+        <v>101.6515194465674</v>
       </c>
       <c r="T16" t="n">
-        <v>120.9260181286959</v>
+        <v>120.9260181286961</v>
       </c>
       <c r="U16" t="n">
-        <v>174.3971915920091</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>148.2068058733796</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W16" t="n">
-        <v>173.3736919439928</v>
+        <v>89.7158482992695</v>
       </c>
       <c r="X16" t="n">
-        <v>35.36095029507682</v>
+        <v>119.0187939397961</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.8936616958636</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.26765881265731</v>
+        <v>14.26765881265763</v>
       </c>
       <c r="T17" t="n">
         <v>51.02633000300699</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353616</v>
       </c>
       <c r="T18" t="n">
-        <v>97.83333659764476</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>77.67202513757874</v>
+        <v>77.67202513757917</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>97.83333659764521</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2558,22 +2558,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>58.80574079389967</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>206.2618390247482</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2691,7 +2691,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.3180368534454</v>
+        <v>8.25514070299087</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133613</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3029,25 +3029,25 @@
         <v>248.3672139752539</v>
       </c>
       <c r="C32" t="n">
-        <v>236.3785309329356</v>
+        <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
         <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1019725473691</v>
+        <v>249.1019725473692</v>
       </c>
       <c r="F32" t="n">
-        <v>268.2737886353463</v>
+        <v>268.2737886353464</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2070565327688</v>
+        <v>270.2070565327689</v>
       </c>
       <c r="H32" t="n">
         <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570689</v>
+        <v>29.35313665570692</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836452</v>
+        <v>43.62079546836455</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871388</v>
+        <v>80.37946665871391</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6005927755608</v>
+        <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
         <v>191.873591215433</v>
@@ -3092,7 +3092,7 @@
         <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
-        <v>236.4739489261365</v>
+        <v>236.4739489261366</v>
       </c>
       <c r="Y32" t="n">
         <v>247.8705467223353</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>84.37298759326556</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3156,7 +3156,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995097</v>
+        <v>39.98392484995099</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535145</v>
+        <v>26.18391969535148</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929838</v>
+        <v>9.805284092929867</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709287</v>
+        <v>8.753033948709316</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895596</v>
+        <v>9.219958276895625</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824343</v>
+        <v>25.49466099824346</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093385</v>
+        <v>16.04302862093388</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763201</v>
+        <v>1.025123805763229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180511</v>
+        <v>6.29067342418054</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276426</v>
+        <v>69.83677482276428</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489289</v>
+        <v>89.11127350489292</v>
       </c>
       <c r="U34" t="n">
         <v>142.5824469682061</v>
@@ -3250,10 +3250,10 @@
         <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599293</v>
+        <v>87.20404931599296</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206062</v>
+        <v>78.07891707206065</v>
       </c>
     </row>
     <row r="35">
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493049962</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>84.37298759326566</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3867,7 +3867,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318832</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.0152905977038</v>
+        <v>1617.135790084608</v>
       </c>
       <c r="C2" t="n">
-        <v>639.0152905977038</v>
+        <v>1235.202031417416</v>
       </c>
       <c r="D2" t="n">
-        <v>639.0152905977038</v>
+        <v>1235.202031417416</v>
       </c>
       <c r="E2" t="n">
-        <v>639.0152905977038</v>
+        <v>1203.059770249595</v>
       </c>
       <c r="F2" t="n">
-        <v>628.9045039482783</v>
+        <v>788.908579559765</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8005174024663</v>
+        <v>372.804593013953</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8005174024663</v>
+        <v>39.9833186112623</v>
       </c>
       <c r="I2" t="n">
         <v>39.9833186112623</v>
       </c>
       <c r="J2" t="n">
-        <v>39.9833186112623</v>
+        <v>111.981862884068</v>
       </c>
       <c r="K2" t="n">
-        <v>280.1236906560451</v>
+        <v>352.1222349288507</v>
       </c>
       <c r="L2" t="n">
-        <v>628.0090637409913</v>
+        <v>700.0076080137969</v>
       </c>
       <c r="M2" t="n">
-        <v>993.2408372599753</v>
+        <v>1093.246774266885</v>
       </c>
       <c r="N2" t="n">
-        <v>1371.572195947691</v>
+        <v>1471.578132954601</v>
       </c>
       <c r="O2" t="n">
-        <v>1676.576780420525</v>
+        <v>1776.582717427435</v>
       </c>
       <c r="P2" t="n">
-        <v>1904.733676876578</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="Q2" t="n">
         <v>1999.165930563115</v>
       </c>
       <c r="R2" t="n">
-        <v>1908.527644058968</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S2" t="n">
-        <v>1908.527644058968</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="T2" t="n">
-        <v>1908.527644058968</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="U2" t="n">
-        <v>1653.642307772962</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="V2" t="n">
-        <v>1316.663033668904</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="W2" t="n">
-        <v>954.1281035265047</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="X2" t="n">
-        <v>639.0152905977038</v>
+        <v>1617.135790084608</v>
       </c>
       <c r="Y2" t="n">
-        <v>639.0152905977038</v>
+        <v>1617.135790084608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.8330298628526</v>
+        <v>819.3582216600045</v>
       </c>
       <c r="C3" t="n">
-        <v>198.1293571038073</v>
+        <v>657.6545489009592</v>
       </c>
       <c r="D3" t="n">
-        <v>108.3656039212013</v>
+        <v>518.8159118911713</v>
       </c>
       <c r="E3" t="n">
-        <v>108.3656039212013</v>
+        <v>371.7879019480424</v>
       </c>
       <c r="F3" t="n">
-        <v>108.3656039212013</v>
+        <v>237.0941038979167</v>
       </c>
       <c r="G3" t="n">
         <v>108.3656039212013</v>
@@ -4416,7 +4416,7 @@
         <v>329.7280177045571</v>
       </c>
       <c r="M3" t="n">
-        <v>814.7613712147836</v>
+        <v>652.3048629033016</v>
       </c>
       <c r="N3" t="n">
         <v>1147.098430717672</v>
@@ -4434,25 +4434,25 @@
         <v>1939.381661658061</v>
       </c>
       <c r="S3" t="n">
-        <v>1786.582174670801</v>
+        <v>1838.927470232248</v>
       </c>
       <c r="T3" t="n">
-        <v>1597.897070836786</v>
+        <v>1838.927470232248</v>
       </c>
       <c r="U3" t="n">
-        <v>1379.402278435096</v>
+        <v>1838.927470232248</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.00665588343</v>
+        <v>1610.531847680582</v>
       </c>
       <c r="W3" t="n">
-        <v>909.6907871167401</v>
+        <v>1369.215978913892</v>
       </c>
       <c r="X3" t="n">
-        <v>711.7737989945347</v>
+        <v>1171.298990791686</v>
       </c>
       <c r="Y3" t="n">
-        <v>519.2524726441135</v>
+        <v>978.7776644412654</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="C4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="D4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="F4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="G4" t="n">
-        <v>199.3559638319885</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="H4" t="n">
-        <v>39.9833186112623</v>
+        <v>244.2436015944111</v>
       </c>
       <c r="I4" t="n">
-        <v>39.9833186112623</v>
+        <v>100.0405571970896</v>
       </c>
       <c r="J4" t="n">
         <v>39.9833186112623</v>
@@ -4510,28 +4510,28 @@
         <v>533.5052225108838</v>
       </c>
       <c r="R4" t="n">
-        <v>533.5052225108838</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="S4" t="n">
-        <v>533.5052225108838</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="T4" t="n">
-        <v>533.5052225108838</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="U4" t="n">
-        <v>533.5052225108838</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="V4" t="n">
-        <v>533.5052225108838</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="W4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="X4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.2757124641385</v>
+        <v>383.9834411252619</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954.1281035265047</v>
+        <v>720.8660424238078</v>
       </c>
       <c r="C5" t="n">
-        <v>954.1281035265047</v>
+        <v>720.8660424238078</v>
       </c>
       <c r="D5" t="n">
-        <v>954.1281035265047</v>
+        <v>720.8660424238078</v>
       </c>
       <c r="E5" t="n">
-        <v>954.1281035265047</v>
+        <v>326.0803225299147</v>
       </c>
       <c r="F5" t="n">
-        <v>539.976912836675</v>
+        <v>224.8640999078742</v>
       </c>
       <c r="G5" t="n">
-        <v>527.9133303312669</v>
+        <v>212.8005174024663</v>
       </c>
       <c r="H5" t="n">
-        <v>195.0920559285762</v>
+        <v>212.8005174024663</v>
       </c>
       <c r="I5" t="n">
         <v>39.9833186112623</v>
       </c>
       <c r="J5" t="n">
-        <v>39.9833186112623</v>
+        <v>111.981862884068</v>
       </c>
       <c r="K5" t="n">
-        <v>280.1236906560451</v>
+        <v>252.1162979219411</v>
       </c>
       <c r="L5" t="n">
-        <v>628.0090637409913</v>
+        <v>600.0016710068874</v>
       </c>
       <c r="M5" t="n">
-        <v>1021.248229994079</v>
+        <v>993.2408372599753</v>
       </c>
       <c r="N5" t="n">
-        <v>1399.579588681795</v>
+        <v>1371.572195947691</v>
       </c>
       <c r="O5" t="n">
-        <v>1704.584173154629</v>
+        <v>1676.576780420525</v>
       </c>
       <c r="P5" t="n">
-        <v>1932.741069610682</v>
+        <v>1904.733676876578</v>
       </c>
       <c r="Q5" t="n">
         <v>1999.165930563115</v>
@@ -4592,25 +4592,25 @@
         <v>1908.527644058968</v>
       </c>
       <c r="S5" t="n">
-        <v>1908.527644058968</v>
+        <v>1721.298668689322</v>
       </c>
       <c r="T5" t="n">
-        <v>1908.527644058968</v>
+        <v>1496.939722420334</v>
       </c>
       <c r="U5" t="n">
-        <v>1653.642307772962</v>
+        <v>1496.939722420334</v>
       </c>
       <c r="V5" t="n">
-        <v>1316.663033668904</v>
+        <v>1496.939722420334</v>
       </c>
       <c r="W5" t="n">
-        <v>954.1281035265047</v>
+        <v>1496.939722420334</v>
       </c>
       <c r="X5" t="n">
-        <v>954.1281035265047</v>
+        <v>1114.909581941827</v>
       </c>
       <c r="Y5" t="n">
-        <v>954.1281035265047</v>
+        <v>1114.909581941827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.8330298628526</v>
+        <v>651.7289421268031</v>
       </c>
       <c r="C6" t="n">
-        <v>198.1293571038073</v>
+        <v>490.0252693677577</v>
       </c>
       <c r="D6" t="n">
-        <v>108.3656039212013</v>
+        <v>490.0252693677577</v>
       </c>
       <c r="E6" t="n">
-        <v>108.3656039212013</v>
+        <v>342.997259424629</v>
       </c>
       <c r="F6" t="n">
-        <v>108.3656039212013</v>
+        <v>208.3034613745033</v>
       </c>
       <c r="G6" t="n">
-        <v>108.3656039212013</v>
+        <v>208.3034613745033</v>
       </c>
       <c r="H6" t="n">
         <v>108.3656039212013</v>
@@ -4659,37 +4659,37 @@
         <v>1675.37678419927</v>
       </c>
       <c r="O6" t="n">
-        <v>1841.394300777521</v>
+        <v>1697.070011287418</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777521</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="Q6" t="n">
         <v>1999.165930563115</v>
       </c>
       <c r="R6" t="n">
-        <v>1939.381661658061</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S6" t="n">
-        <v>1786.582174670801</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="T6" t="n">
-        <v>1597.897070836786</v>
+        <v>1889.792983100736</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.402278435096</v>
+        <v>1671.298190699046</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.00665588343</v>
+        <v>1442.90256814738</v>
       </c>
       <c r="W6" t="n">
-        <v>909.6907871167401</v>
+        <v>1201.586699380691</v>
       </c>
       <c r="X6" t="n">
-        <v>711.7737989945347</v>
+        <v>1003.669711258485</v>
       </c>
       <c r="Y6" t="n">
-        <v>519.2524726441135</v>
+        <v>811.1483849080639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.0425638571948</v>
+        <v>514.6801955605005</v>
       </c>
       <c r="C7" t="n">
-        <v>572.0425638571948</v>
+        <v>345.0642260221807</v>
       </c>
       <c r="D7" t="n">
-        <v>572.0425638571948</v>
+        <v>191.9923328499435</v>
       </c>
       <c r="E7" t="n">
-        <v>520.7563674383614</v>
+        <v>39.9833186112623</v>
       </c>
       <c r="F7" t="n">
-        <v>368.2757124641385</v>
+        <v>39.9833186112623</v>
       </c>
       <c r="G7" t="n">
-        <v>199.3559638319885</v>
+        <v>39.9833186112623</v>
       </c>
       <c r="H7" t="n">
         <v>39.9833186112623</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.8370984499275</v>
+        <v>812.3208214182546</v>
       </c>
       <c r="C8" t="n">
-        <v>569.8370984499275</v>
+        <v>812.3208214182546</v>
       </c>
       <c r="D8" t="n">
-        <v>569.8370984499275</v>
+        <v>812.3208214182546</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>812.3208214182546</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>802.210034768829</v>
       </c>
       <c r="G8" t="n">
         <v>547.662729295094</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V8" t="n">
-        <v>1568.460206900163</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W8" t="n">
-        <v>1205.925276757764</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="X8" t="n">
-        <v>823.895136279257</v>
+        <v>812.3208214182546</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.8370984499275</v>
+        <v>812.3208214182546</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759.6333438441981</v>
+        <v>869.7687198800292</v>
       </c>
       <c r="C9" t="n">
         <v>759.6333438441981</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W9" t="n">
-        <v>1150.071658316825</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X9" t="n">
-        <v>952.1546701946193</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y9" t="n">
-        <v>759.6333438441981</v>
+        <v>869.7687198800292</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.371731180151</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>104.371731180151</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>104.371731180151</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>104.371731180151</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>104.371731180151</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4993,19 +4993,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1314.126951005821</v>
+        <v>1472.717764658595</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.224652463661</v>
+        <v>1472.717764658595</v>
       </c>
       <c r="D11" t="n">
-        <v>1003.299237246877</v>
+        <v>1210.925260010851</v>
       </c>
       <c r="E11" t="n">
-        <v>719.5449774780166</v>
+        <v>927.17100024199</v>
       </c>
       <c r="F11" t="n">
-        <v>416.4252469132192</v>
+        <v>624.0512696771923</v>
       </c>
       <c r="G11" t="n">
-        <v>111.3527204924395</v>
+        <v>318.9787432564126</v>
       </c>
       <c r="H11" t="n">
-        <v>111.3527204924395</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>230.3874601676176</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K11" t="n">
-        <v>579.3497662809446</v>
+        <v>384.8463070007564</v>
       </c>
       <c r="L11" t="n">
-        <v>1036.057073434435</v>
+        <v>841.5536141542468</v>
       </c>
       <c r="M11" t="n">
-        <v>1452.436648544422</v>
+        <v>1343.614714475879</v>
       </c>
       <c r="N11" t="n">
-        <v>1830.768007232138</v>
+        <v>1721.946073163595</v>
       </c>
       <c r="O11" t="n">
-        <v>2135.772591704972</v>
+        <v>2026.950657636429</v>
       </c>
       <c r="P11" t="n">
-        <v>2363.929488161025</v>
+        <v>2255.107554092482</v>
       </c>
       <c r="Q11" t="n">
-        <v>2458.361741847562</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R11" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2402.151576068779</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="T11" t="n">
-        <v>2402.151576068779</v>
+        <v>2365.021605169436</v>
       </c>
       <c r="U11" t="n">
-        <v>2402.151576068779</v>
+        <v>2221.167729008463</v>
       </c>
       <c r="V11" t="n">
-        <v>2402.151576068779</v>
+        <v>1995.219915029436</v>
       </c>
       <c r="W11" t="n">
-        <v>2150.648106051412</v>
+        <v>1743.716445012069</v>
       </c>
       <c r="X11" t="n">
-        <v>1879.649425697938</v>
+        <v>1472.717764658595</v>
       </c>
       <c r="Y11" t="n">
-        <v>1597.139030398808</v>
+        <v>1472.717764658595</v>
       </c>
     </row>
     <row r="12">
@@ -5094,58 +5094,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.0161906131302</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C12" t="n">
-        <v>677.3125178540849</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D12" t="n">
-        <v>538.473880844297</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E12" t="n">
-        <v>391.4458709011682</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F12" t="n">
-        <v>256.7520728510426</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G12" t="n">
-        <v>128.0235728743272</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H12" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I12" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
         <v>109.821128359374</v>
       </c>
       <c r="K12" t="n">
-        <v>264.1607466644861</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L12" t="n">
-        <v>629.9825918346017</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M12" t="n">
-        <v>1115.015945344828</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.28159146795</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P12" t="n">
-        <v>2320.577461527798</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q12" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
-        <v>2265.765335421078</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
         <v>2077.080231587064</v>
@@ -5160,10 +5160,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1190.956959744812</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4356333943912</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329.9792980774957</v>
+        <v>372.019731124701</v>
       </c>
       <c r="C13" t="n">
-        <v>271.3947886642083</v>
+        <v>313.4352217114135</v>
       </c>
       <c r="D13" t="n">
-        <v>271.3947886642083</v>
+        <v>271.3947886642085</v>
       </c>
       <c r="E13" t="n">
-        <v>230.4172345505594</v>
+        <v>230.4172345505595</v>
       </c>
       <c r="F13" t="n">
-        <v>188.9680397013688</v>
+        <v>188.9680397013689</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0797511942509</v>
+        <v>131.0797511942512</v>
       </c>
       <c r="H13" t="n">
-        <v>82.73856609855704</v>
+        <v>82.7385660985571</v>
       </c>
       <c r="I13" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684269</v>
+        <v>99.52681635684266</v>
       </c>
       <c r="K13" t="n">
         <v>241.9529381700302</v>
@@ -5206,10 +5206,10 @@
         <v>451.3819516388339</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349798</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531243</v>
+        <v>905.4416676531242</v>
       </c>
       <c r="O13" t="n">
         <v>1112.727248217358</v>
@@ -5218,7 +5218,7 @@
         <v>1284.51766601404</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.569151829065</v>
+        <v>1355.569151829064</v>
       </c>
       <c r="R13" t="n">
         <v>1317.078830568475</v>
@@ -5227,22 +5227,22 @@
         <v>1214.400528097195</v>
       </c>
       <c r="T13" t="n">
-        <v>1134.715474359107</v>
+        <v>1092.253035037906</v>
       </c>
       <c r="U13" t="n">
-        <v>958.5566949732394</v>
+        <v>916.0942556520378</v>
       </c>
       <c r="V13" t="n">
-        <v>808.8528506566943</v>
+        <v>766.3904113354927</v>
       </c>
       <c r="W13" t="n">
-        <v>633.7279092991257</v>
+        <v>591.265469977924</v>
       </c>
       <c r="X13" t="n">
-        <v>513.5069053195338</v>
+        <v>555.5473383667389</v>
       </c>
       <c r="Y13" t="n">
-        <v>402.5032066368432</v>
+        <v>444.5436396840485</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1200.799464861865</v>
+        <v>1452.302934879231</v>
       </c>
       <c r="C14" t="n">
-        <v>929.8971663197049</v>
+        <v>1452.302934879231</v>
       </c>
       <c r="D14" t="n">
-        <v>929.8971663197049</v>
+        <v>1190.510430231487</v>
       </c>
       <c r="E14" t="n">
-        <v>646.1429065508441</v>
+        <v>906.7561704626263</v>
       </c>
       <c r="F14" t="n">
-        <v>343.0231759860468</v>
+        <v>603.6364398978288</v>
       </c>
       <c r="G14" t="n">
-        <v>333.1425347700978</v>
+        <v>298.563913477049</v>
       </c>
       <c r="H14" t="n">
-        <v>111.3527204924395</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
         <v>121.5655260990735</v>
@@ -5285,22 +5285,22 @@
         <v>709.5912712288025</v>
       </c>
       <c r="M14" t="n">
-        <v>1211.652371550435</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N14" t="n">
-        <v>1698.805664306695</v>
+        <v>1589.98373023815</v>
       </c>
       <c r="O14" t="n">
-        <v>2112.632182848073</v>
+        <v>2003.810248779528</v>
       </c>
       <c r="P14" t="n">
-        <v>2340.789079304127</v>
+        <v>2340.789079304126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2458.361741847562</v>
+        <v>2458.361741847563</v>
       </c>
       <c r="R14" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
         <v>2402.151576068779</v>
@@ -5315,13 +5315,13 @@
         <v>2288.824089924822</v>
       </c>
       <c r="W14" t="n">
-        <v>2037.320619907456</v>
+        <v>2288.824089924822</v>
       </c>
       <c r="X14" t="n">
-        <v>1766.321939553981</v>
+        <v>2017.825409571348</v>
       </c>
       <c r="Y14" t="n">
-        <v>1483.811544254852</v>
+        <v>1735.315014272218</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.0161906131302</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540849</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D15" t="n">
-        <v>538.473880844297</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011682</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510426</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G15" t="n">
-        <v>128.0235728743272</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H15" t="n">
-        <v>49.56698182626785</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I15" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J15" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K15" t="n">
         <v>279.0575343864565</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346017</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344828</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.28159146795</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252101</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.577461527798</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q15" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.765335421078</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
         <v>2077.080231587064</v>
@@ -5397,10 +5397,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.956959744812</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943912</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.0197311247</v>
+        <v>372.0197311247011</v>
       </c>
       <c r="C16" t="n">
-        <v>313.4352217114127</v>
+        <v>313.4352217114136</v>
       </c>
       <c r="D16" t="n">
-        <v>271.3947886642078</v>
+        <v>271.3947886642086</v>
       </c>
       <c r="E16" t="n">
-        <v>230.417234550559</v>
+        <v>230.4172345505596</v>
       </c>
       <c r="F16" t="n">
-        <v>188.9680397013685</v>
+        <v>188.9680397013689</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0797511942508</v>
+        <v>131.0797511942511</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855702</v>
+        <v>82.73856609855713</v>
       </c>
       <c r="I16" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684269</v>
+        <v>99.52681635684246</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9529381700303</v>
+        <v>241.9529381700299</v>
       </c>
       <c r="L16" t="n">
-        <v>451.381951638834</v>
+        <v>451.3819516388335</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349801</v>
+        <v>678.1973918349794</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531246</v>
+        <v>905.4416676531239</v>
       </c>
       <c r="O16" t="n">
         <v>1112.727248217358</v>
       </c>
       <c r="P16" t="n">
-        <v>1284.517666014041</v>
+        <v>1284.51766601404</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.569151829065</v>
+        <v>1355.569151829064</v>
       </c>
       <c r="R16" t="n">
-        <v>1317.078830568476</v>
+        <v>1317.078830568475</v>
       </c>
       <c r="S16" t="n">
-        <v>1214.400528097196</v>
+        <v>1214.400528097194</v>
       </c>
       <c r="T16" t="n">
-        <v>1092.253035037907</v>
+        <v>1092.253035037905</v>
       </c>
       <c r="U16" t="n">
-        <v>916.0942556520392</v>
+        <v>916.0942556520375</v>
       </c>
       <c r="V16" t="n">
-        <v>766.3904113354943</v>
+        <v>766.3904113354923</v>
       </c>
       <c r="W16" t="n">
-        <v>591.2654699779258</v>
+        <v>675.7683423463315</v>
       </c>
       <c r="X16" t="n">
-        <v>555.547338366738</v>
+        <v>555.5473383667395</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.5436396840474</v>
+        <v>444.5436396840487</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936773</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909882</v>
+        <v>694.191837090988</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923622</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
         <v>121.5655260990735</v>
@@ -5528,16 +5528,16 @@
         <v>1481.161796169606</v>
       </c>
       <c r="O17" t="n">
-        <v>1955.544517177699</v>
+        <v>1786.16638064244</v>
       </c>
       <c r="P17" t="n">
-        <v>2183.701413633753</v>
+        <v>2183.701413633752</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.511803855548</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
         <v>2463.937314734951</v>
@@ -5546,19 +5546,19 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U17" t="n">
-        <v>2330.327429762363</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.165354449508</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W17" t="n">
-        <v>1976.447623098313</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
         <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="18">
@@ -5589,37 +5589,37 @@
         <v>117.9492671362069</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K18" t="n">
-        <v>339.3116809195627</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L18" t="n">
-        <v>705.1335260896783</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.166879599905</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.432525723027</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q18" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421078</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T18" t="n">
         <v>2166.943783302245</v>
@@ -5647,70 +5647,70 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C19" t="n">
-        <v>49.56698182626785</v>
+        <v>52.70450661701975</v>
       </c>
       <c r="D19" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="E19" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="F19" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778582</v>
+        <v>86.38798680778594</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080453</v>
+        <v>186.9950662080454</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356471</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852474</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809371</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S19" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T19" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U19" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V19" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W19" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X19" t="n">
         <v>109.5231117359626</v>
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.167124175249</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936769</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>694.1918370909877</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923625</v>
       </c>
       <c r="G20" t="n">
         <v>209.5710574377546</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>290.9436626343325</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>650.7559067396737</v>
+        <v>481.3777702044151</v>
       </c>
       <c r="L20" t="n">
-        <v>998.6412798246199</v>
+        <v>998.6412798246204</v>
       </c>
       <c r="M20" t="n">
         <v>1391.880446077708</v>
       </c>
       <c r="N20" t="n">
-        <v>1770.211804765423</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.216389238257</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P20" t="n">
         <v>2303.373285694311</v>
@@ -5774,7 +5774,7 @@
         <v>2397.805539380848</v>
       </c>
       <c r="R20" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
         <v>2463.937314734951</v>
@@ -5786,16 +5786,16 @@
         <v>2330.327429762364</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.165354449509</v>
+        <v>2166.16535444951</v>
       </c>
       <c r="W20" t="n">
         <v>1976.447623098314</v>
       </c>
       <c r="X20" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,58 +5805,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131302</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540849</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D21" t="n">
-        <v>538.473880844297</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E21" t="n">
-        <v>391.4458709011682</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F21" t="n">
-        <v>256.7520728510426</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G21" t="n">
-        <v>128.0235728743272</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H21" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I21" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K21" t="n">
-        <v>264.1607466644861</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L21" t="n">
-        <v>629.9825918346017</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M21" t="n">
-        <v>1115.015945344828</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.28159146795</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252101</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P21" t="n">
-        <v>2320.577461527798</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q21" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S21" t="n">
-        <v>2265.765335421078</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
         <v>2077.080231587064</v>
@@ -5871,10 +5871,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.956959744812</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943912</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5884,70 +5884,70 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F22" t="n">
-        <v>52.78379906314241</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G22" t="n">
-        <v>52.78379906314241</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="I22" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="J22" t="n">
-        <v>52.78379906314241</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="K22" t="n">
-        <v>86.38798680778582</v>
+        <v>86.38798680778594</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9950662080453</v>
+        <v>186.9950662080454</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9885723356471</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N22" t="n">
-        <v>423.4109140852474</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O22" t="n">
-        <v>521.8745605809371</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S22" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T22" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U22" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V22" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X22" t="n">
         <v>109.5231117359626</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.167124175249</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936769</v>
+        <v>916.1603581936778</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909877</v>
+        <v>694.1918370909887</v>
       </c>
       <c r="F23" t="n">
-        <v>452.857845192362</v>
+        <v>452.8578451923629</v>
       </c>
       <c r="G23" t="n">
-        <v>209.571057437754</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H23" t="n">
         <v>49.56698182626786</v>
@@ -5987,25 +5987,25 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J23" t="n">
-        <v>290.9436626343325</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>650.7559067396742</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L23" t="n">
-        <v>998.6412798246204</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.880446077708</v>
+        <v>1222.502309542449</v>
       </c>
       <c r="N23" t="n">
-        <v>1770.211804765424</v>
+        <v>1600.833668230165</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.216389238258</v>
+        <v>1905.838252702999</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.373285694311</v>
+        <v>2133.995149159052</v>
       </c>
       <c r="Q23" t="n">
         <v>2397.805539380848</v>
@@ -6020,7 +6020,7 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V23" t="n">
         <v>2166.165354449509</v>
@@ -6029,7 +6029,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y23" t="n">
         <v>1546.510024778054</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H24" t="n">
         <v>117.9492671362069</v>
@@ -6084,7 +6084,7 @@
         <v>2093.632476507178</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q24" t="n">
         <v>2478.349091313393</v>
@@ -6096,22 +6096,22 @@
         <v>2265.765335421079</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="25">
@@ -6136,10 +6136,10 @@
         <v>49.56698182626786</v>
       </c>
       <c r="G25" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H25" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I25" t="n">
         <v>52.78379906314252</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.089958050125</v>
+        <v>1485.841918033115</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.732124138699</v>
+        <v>1218.484084121689</v>
       </c>
       <c r="D26" t="n">
         <v>1218.484084121689</v>
       </c>
       <c r="E26" t="n">
-        <v>938.2742889835621</v>
+        <v>938.2742889835622</v>
       </c>
       <c r="F26" t="n">
-        <v>638.6990230494988</v>
+        <v>638.6990230494989</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1709612594532</v>
+        <v>337.1709612594533</v>
       </c>
       <c r="H26" t="n">
         <v>118.9256116125289</v>
       </c>
       <c r="I26" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J26" t="n">
         <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>589.9307838442174</v>
+        <v>597.4149816009329</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.11202078229</v>
+        <v>1057.596218539006</v>
       </c>
       <c r="M26" t="n">
-        <v>1555.647050888505</v>
+        <v>1563.13124864522</v>
       </c>
       <c r="N26" t="n">
-        <v>2046.274273429347</v>
+        <v>2053.758471186063</v>
       </c>
       <c r="O26" t="n">
-        <v>2463.574721755308</v>
+        <v>2471.058919512023</v>
       </c>
       <c r="P26" t="n">
-        <v>2804.027482064488</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q26" t="n">
-        <v>3010.755599604151</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R26" t="n">
-        <v>3034.216878854564</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240685</v>
+        <v>2961.563828240686</v>
       </c>
       <c r="T26" t="n">
-        <v>2851.780806727462</v>
+        <v>2851.780806727464</v>
       </c>
       <c r="U26" t="n">
-        <v>2792.381068551806</v>
+        <v>2711.471395197224</v>
       </c>
       <c r="V26" t="n">
-        <v>2569.977719203514</v>
+        <v>2489.068045848931</v>
       </c>
       <c r="W26" t="n">
-        <v>2569.977719203514</v>
+        <v>2241.109040462298</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.523503480774</v>
+        <v>1973.654824739558</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.557572812378</v>
+        <v>1765.309532795368</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>129.0666228870303</v>
       </c>
       <c r="I27" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J27" t="n">
         <v>120.9384841101974</v>
@@ -6327,16 +6327,16 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.545729874343</v>
+        <v>2504.833112414238</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.746242887083</v>
+        <v>2352.033625426979</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.061139053068</v>
+        <v>2163.348521592964</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.566346651379</v>
+        <v>1944.853729191274</v>
       </c>
       <c r="V27" t="n">
         <v>1731.170724099713</v>
@@ -6361,46 +6361,46 @@
         <v>358.325834460385</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778316</v>
+        <v>303.2857896778319</v>
       </c>
       <c r="D28" t="n">
-        <v>264.7898212613608</v>
+        <v>264.7898212613611</v>
       </c>
       <c r="E28" t="n">
-        <v>227.356731778446</v>
+        <v>227.3567317784463</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4520015599896</v>
+        <v>189.4520015599898</v>
       </c>
       <c r="G28" t="n">
-        <v>135.1081776836061</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H28" t="n">
         <v>90.31145721864635</v>
       </c>
       <c r="I28" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922484</v>
+        <v>114.1181018922487</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900184</v>
+        <v>260.0181534900189</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434046</v>
+        <v>472.9210967434051</v>
       </c>
       <c r="M28" t="n">
-        <v>703.2104667241329</v>
+        <v>703.2104667241335</v>
       </c>
       <c r="N28" t="n">
-        <v>933.9286723268599</v>
+        <v>933.9286723268605</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.688182675676</v>
+        <v>1144.688182675677</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.95253025694</v>
+        <v>1319.952530256941</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.477945856548</v>
@@ -6415,16 +6415,16 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024581</v>
+        <v>969.1809082024585</v>
       </c>
       <c r="V28" t="n">
-        <v>823.0215285166471</v>
+        <v>823.0215285166474</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898127</v>
+        <v>651.4410517898129</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409548</v>
+        <v>534.7645124409551</v>
       </c>
       <c r="Y28" t="n">
         <v>427.3052783889984</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1467.603334367763</v>
+        <v>1685.848684014687</v>
       </c>
       <c r="C29" t="n">
-        <v>1200.245500456337</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="D29" t="n">
-        <v>941.9974604393269</v>
+        <v>1160.242810086251</v>
       </c>
       <c r="E29" t="n">
-        <v>661.7876653012001</v>
+        <v>880.0330149481244</v>
       </c>
       <c r="F29" t="n">
-        <v>362.2123993671369</v>
+        <v>580.4577490140612</v>
       </c>
       <c r="G29" t="n">
-        <v>60.68433757709128</v>
+        <v>278.9296872240157</v>
       </c>
       <c r="H29" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="I29" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J29" t="n">
-        <v>244.9787457030236</v>
+        <v>237.494547946309</v>
       </c>
       <c r="K29" t="n">
-        <v>597.4149816009331</v>
+        <v>589.9307838442184</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.596218539006</v>
+        <v>1050.112020782291</v>
       </c>
       <c r="M29" t="n">
-        <v>1563.13124864522</v>
+        <v>1555.647050888506</v>
       </c>
       <c r="N29" t="n">
-        <v>2046.274273429347</v>
+        <v>2046.274273429348</v>
       </c>
       <c r="O29" t="n">
-        <v>2463.574721755308</v>
+        <v>2463.574721755309</v>
       </c>
       <c r="P29" t="n">
-        <v>2804.027482064488</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q29" t="n">
-        <v>3010.755599604151</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R29" t="n">
-        <v>3034.216878854564</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S29" t="n">
-        <v>2961.563828240684</v>
+        <v>2961.563828240685</v>
       </c>
       <c r="T29" t="n">
-        <v>2851.780806727462</v>
+        <v>2851.780806727463</v>
       </c>
       <c r="U29" t="n">
-        <v>2711.471395197222</v>
+        <v>2711.471395197223</v>
       </c>
       <c r="V29" t="n">
-        <v>2489.06804584893</v>
+        <v>2489.068045848931</v>
       </c>
       <c r="W29" t="n">
-        <v>2241.109040462297</v>
+        <v>2241.109040462298</v>
       </c>
       <c r="X29" t="n">
-        <v>1973.654824739557</v>
+        <v>1973.654824739558</v>
       </c>
       <c r="Y29" t="n">
-        <v>1747.070949130016</v>
+        <v>1965.31629877694</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.9970980791353</v>
+        <v>925.2844806190308</v>
       </c>
       <c r="C30" t="n">
-        <v>778.29342532009</v>
+        <v>763.5808078599855</v>
       </c>
       <c r="D30" t="n">
-        <v>639.4547883103021</v>
+        <v>624.7421708501976</v>
       </c>
       <c r="E30" t="n">
-        <v>492.4267783671734</v>
+        <v>477.7141609070688</v>
       </c>
       <c r="F30" t="n">
-        <v>357.7329803170477</v>
+        <v>343.0203628569432</v>
       </c>
       <c r="G30" t="n">
-        <v>229.0044803403322</v>
+        <v>214.2918628802277</v>
       </c>
       <c r="H30" t="n">
-        <v>129.0666228870303</v>
+        <v>114.3540054269258</v>
       </c>
       <c r="I30" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J30" t="n">
         <v>120.9384841101974</v>
@@ -6564,28 +6564,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.545729874343</v>
+        <v>2504.833112414238</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.746242887083</v>
+        <v>2352.033625426979</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.061139053068</v>
+        <v>2163.348521592964</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.566346651379</v>
+        <v>1944.853729191274</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.170724099713</v>
+        <v>1716.458106639608</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.854855333023</v>
+        <v>1475.142237872918</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.937867210817</v>
+        <v>1277.225249750713</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.416540860396</v>
+        <v>1084.703923400292</v>
       </c>
     </row>
     <row r="31">
@@ -6613,10 +6613,10 @@
         <v>135.1081776836062</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31145721864637</v>
+        <v>90.31145721864638</v>
       </c>
       <c r="I31" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J31" t="n">
         <v>114.1181018922489</v>
@@ -6683,19 +6683,19 @@
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941254</v>
+        <v>821.8667872941251</v>
       </c>
       <c r="F32" t="n">
-        <v>550.8831624099372</v>
+        <v>550.8831624099369</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9467416697667</v>
+        <v>277.9467416697662</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271688</v>
+        <v>88.29303307271692</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J32" t="n">
         <v>270.9604756060692</v>
@@ -6704,19 +6704,19 @@
         <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>999.3047519819074</v>
+        <v>1139.623283228017</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.543918234995</v>
+        <v>1673.180980727214</v>
       </c>
       <c r="N32" t="n">
-        <v>1832.136729360571</v>
+        <v>2191.830870661039</v>
       </c>
       <c r="O32" t="n">
-        <v>2277.459845079514</v>
+        <v>2558.096907571733</v>
       </c>
       <c r="P32" t="n">
-        <v>2645.935272781677</v>
+        <v>2786.253804027786</v>
       </c>
       <c r="Q32" t="n">
         <v>2880.686057714323</v>
@@ -6728,7 +6728,7 @@
         <v>2888.108594793714</v>
       </c>
       <c r="T32" t="n">
-        <v>2806.917214330366</v>
+        <v>2806.917214330367</v>
       </c>
       <c r="U32" t="n">
         <v>2695.199443850001</v>
@@ -6737,13 +6737,13 @@
         <v>2501.387735551584</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.020371214826</v>
+        <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
         <v>2043.157796541961</v>
       </c>
       <c r="Y32" t="n">
-        <v>1792.78350692344</v>
+        <v>1792.783506923441</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.243543129094</v>
+        <v>937.9561605891985</v>
       </c>
       <c r="C33" t="n">
-        <v>761.5398703700487</v>
+        <v>776.2524878301532</v>
       </c>
       <c r="D33" t="n">
-        <v>622.7012333602607</v>
+        <v>637.4138508203653</v>
       </c>
       <c r="E33" t="n">
-        <v>475.673223417132</v>
+        <v>490.3858408772364</v>
       </c>
       <c r="F33" t="n">
-        <v>340.9794253670063</v>
+        <v>355.6920428271108</v>
       </c>
       <c r="G33" t="n">
-        <v>212.2509253902909</v>
+        <v>226.9635428503954</v>
       </c>
       <c r="H33" t="n">
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6804,25 +6804,25 @@
         <v>2502.792174924301</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.307584103027</v>
+        <v>2176.020201563132</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.812791701337</v>
+        <v>1957.525409161442</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.417169149671</v>
+        <v>1729.129786609776</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.101300382981</v>
+        <v>1487.813917843086</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.184312260776</v>
+        <v>1289.896929720881</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.662985910355</v>
+        <v>1097.375603370459</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213227</v>
+        <v>156.1434096213229</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886445</v>
+        <v>129.6950058886447</v>
       </c>
       <c r="D34" t="n">
-        <v>119.7906785220487</v>
+        <v>119.7906785220488</v>
       </c>
       <c r="E34" t="n">
-        <v>110.949230089009</v>
+        <v>110.9492300890091</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204276</v>
+        <v>101.6361409204277</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391906</v>
+        <v>75.88395809391913</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883437</v>
+        <v>59.6788786788344</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J34" t="n">
-        <v>140.0998317952943</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="K34" t="n">
-        <v>314.0225507860468</v>
+        <v>232.566119077907</v>
       </c>
       <c r="L34" t="n">
-        <v>414.6296301863064</v>
+        <v>333.1731984781665</v>
       </c>
       <c r="M34" t="n">
-        <v>655.1162795951824</v>
+        <v>591.4852358518774</v>
       </c>
       <c r="N34" t="n">
-        <v>773.5386213447828</v>
+        <v>709.9075776014778</v>
       </c>
       <c r="O34" t="n">
-        <v>872.0022678404724</v>
+        <v>808.3712240971674</v>
       </c>
       <c r="P34" t="n">
-        <v>934.9707515686102</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686102</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886299</v>
+        <v>928.6165359886303</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979589</v>
+        <v>858.0743391979593</v>
       </c>
       <c r="T34" t="n">
-        <v>768.0629518192792</v>
+        <v>768.0629518192795</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140206</v>
+        <v>624.0402781140209</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780847</v>
+        <v>506.472539478085</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011253</v>
+        <v>363.4837038011256</v>
       </c>
       <c r="X34" t="n">
-        <v>275.3988055021425</v>
+        <v>275.3988055021427</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000611</v>
+        <v>196.5312125000613</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>238.9081644362655</v>
+        <v>163.2749745479473</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0485364810483</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L35" t="n">
-        <v>826.9339095659946</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.173075819082</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1598.504434506798</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>1903.509018979632</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7096,7 +7096,7 @@
         <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>231.5307021686421</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
@@ -7160,43 +7160,43 @@
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>567.8831210837619</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912828</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600544</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529431</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215968</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
@@ -7208,10 +7208,10 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7254,31 +7254,31 @@
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553802</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254958</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.700572135722</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
         <v>2168.477475838063</v>
@@ -7345,13 +7345,13 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
         <v>629.3786802696717</v>
@@ -7388,13 +7388,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C41" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7409,19 +7409,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810481</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>991.4016840570267</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.108624801147</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
         <v>2232.444567961697</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7488,13 +7488,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K42" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7564,16 +7564,16 @@
         <v>64.43007423039064</v>
       </c>
       <c r="I43" t="n">
-        <v>78.28534634413701</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="J43" t="n">
-        <v>78.28534634413701</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="K43" t="n">
-        <v>111.8895340887804</v>
+        <v>98.03426197503406</v>
       </c>
       <c r="L43" t="n">
-        <v>212.4966134890399</v>
+        <v>198.6413413752936</v>
       </c>
       <c r="M43" t="n">
         <v>330.4901196166417</v>
@@ -7628,46 +7628,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478544</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614935</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362652</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659942</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N44" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.16784766929</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>556.0772978496681</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>412.7083374710356</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8064,10 +8064,10 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>441.3190997320888</v>
       </c>
       <c r="N3" t="n">
-        <v>442.4091405655759</v>
+        <v>606.506623708487</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>320.3729383557368</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.7191921668619</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8307,13 +8307,13 @@
         <v>606.506623708487</v>
       </c>
       <c r="O6" t="n">
-        <v>283.5539098012633</v>
+        <v>137.7717992051997</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,7 +8541,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>234.7709975048689</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>267.8947735152648</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9009,7 +9009,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>467.0451885692743</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>590.3693225497778</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.1904394555157</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9480,7 +9480,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>328.7575477911296</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9732,10 +9732,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>338.0915646308308</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163519</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>280.181958599057</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D11" t="n">
-        <v>219.6484185366507</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348818</v>
+        <v>14.02215359854843</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.43554009216766</v>
       </c>
       <c r="T11" t="n">
-        <v>112.194211282517</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>142.4153373993639</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.6883358392361</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.62002871673292</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>42.03781492798856</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>83.65784364472285</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.1932755567388</v>
       </c>
       <c r="D14" t="n">
-        <v>259.1745796012666</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.2399663527823</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>34.23283508011881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>142.4153373993639</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
-        <v>223.688335839236</v>
+        <v>223.6883358392362</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.65784364472348</v>
       </c>
       <c r="X16" t="n">
-        <v>83.65784364471912</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.161915174132446e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>80.10057662103748</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>69.91443233696343</v>
       </c>
     </row>
     <row r="27">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>57.65886129508321</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.85823450826618</v>
+        <v>267.9211306587208</v>
       </c>
     </row>
     <row r="30">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756124.8589682074</v>
+        <v>756124.8589682071</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756124.8589682075</v>
+        <v>756124.8589682071</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>809015.8500757462</v>
+        <v>809015.8500757464</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>809015.8500757462</v>
+        <v>809015.8500757464</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>518146.2408335728</v>
+      </c>
+      <c r="C2" t="n">
         <v>518146.240833573</v>
-      </c>
-      <c r="C2" t="n">
-        <v>518146.2408335729</v>
       </c>
       <c r="D2" t="n">
         <v>518146.2408335729</v>
       </c>
       <c r="E2" t="n">
-        <v>467492.7298493074</v>
+        <v>467492.7298493067</v>
       </c>
       <c r="F2" t="n">
-        <v>467492.7298493077</v>
+        <v>467492.7298493066</v>
       </c>
       <c r="G2" t="n">
-        <v>518146.2408335725</v>
+        <v>518146.2408335726</v>
       </c>
       <c r="H2" t="n">
         <v>518146.2408335726</v>
@@ -26335,7 +26335,7 @@
         <v>518146.2408335725</v>
       </c>
       <c r="J2" t="n">
-        <v>500652.8278658945</v>
+        <v>500652.8278658946</v>
       </c>
       <c r="K2" t="n">
         <v>500652.8278658944</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238848</v>
+        <v>7924.705156238856</v>
       </c>
       <c r="E3" t="n">
         <v>116088.0659382698</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48934.30502360792</v>
+        <v>48934.30502360805</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208937.1379178785</v>
+        <v>208937.1379178784</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510898</v>
+        <v>71578.88473510908</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589751</v>
+        <v>19514.53999589753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41809.82738295902</v>
+        <v>41809.82738295894</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
-        <v>146335.7066715069</v>
+        <v>146335.7066715068</v>
       </c>
       <c r="F4" t="n">
-        <v>146335.7066715069</v>
+        <v>146335.7066715068</v>
       </c>
       <c r="G4" t="n">
-        <v>188927.0983995263</v>
+        <v>188927.0983995264</v>
       </c>
       <c r="H4" t="n">
         <v>188927.0983995264</v>
       </c>
       <c r="I4" t="n">
-        <v>188927.0983995264</v>
+        <v>188927.0983995263</v>
       </c>
       <c r="J4" t="n">
-        <v>173231.8948401658</v>
+        <v>173231.8948401659</v>
       </c>
       <c r="K4" t="n">
-        <v>173231.8948401658</v>
+        <v>173231.8948401659</v>
       </c>
       <c r="L4" t="n">
         <v>187777.9987838758</v>
       </c>
       <c r="M4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
         <v>187302.9854962236</v>
@@ -26476,10 +26476,10 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
+        <v>46911.8669710024</v>
+      </c>
+      <c r="F5" t="n">
         <v>46911.86697100239</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46911.8669710024</v>
       </c>
       <c r="G5" t="n">
         <v>52054.18958228952</v>
@@ -26494,10 +26494,10 @@
         <v>55656.05714269898</v>
       </c>
       <c r="K5" t="n">
-        <v>55656.05714269897</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505463</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83092.71546309434</v>
+        <v>83092.71546309411</v>
       </c>
       <c r="C6" t="n">
-        <v>250584.3365001199</v>
+        <v>250584.3365001201</v>
       </c>
       <c r="D6" t="n">
         <v>247676.0678263642</v>
       </c>
       <c r="E6" t="n">
-        <v>158157.0902685283</v>
+        <v>157969.4846722897</v>
       </c>
       <c r="F6" t="n">
-        <v>274245.1562067984</v>
+        <v>274057.5506105594</v>
       </c>
       <c r="G6" t="n">
         <v>228230.6478281487</v>
@@ -26540,28 +26540,28 @@
         <v>277164.9528517567</v>
       </c>
       <c r="I6" t="n">
-        <v>277164.9528517566</v>
+        <v>277164.9528517567</v>
       </c>
       <c r="J6" t="n">
-        <v>62827.73796515122</v>
+        <v>62762.94754675255</v>
       </c>
       <c r="K6" t="n">
-        <v>271764.8758830296</v>
+        <v>271700.0854646307</v>
       </c>
       <c r="L6" t="n">
-        <v>202304.7786995337</v>
+        <v>202304.7786995335</v>
       </c>
       <c r="M6" t="n">
         <v>258525.8984488058</v>
       </c>
       <c r="N6" t="n">
+        <v>278040.4384447033</v>
+      </c>
+      <c r="O6" t="n">
+        <v>236230.6110617443</v>
+      </c>
+      <c r="P6" t="n">
         <v>278040.4384447032</v>
-      </c>
-      <c r="O6" t="n">
-        <v>236230.6110617442</v>
-      </c>
-      <c r="P6" t="n">
-        <v>278040.4384447034</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G2" t="n">
         <v>171.0890268032919</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26796,28 +26796,28 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
         <v>619.5872728283482</v>
       </c>
       <c r="J4" t="n">
-        <v>758.554219713641</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="K4" t="n">
-        <v>758.554219713641</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894295</v>
+        <v>733.0425010894296</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.1678812795099</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.26228422869877</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888622</v>
+        <v>89.47360591888635</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487188</v>
+        <v>24.39317499487191</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869877</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5117186242116</v>
+        <v>25.51171862421162</v>
       </c>
       <c r="E4" t="n">
-        <v>94.28407156335777</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260714</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.1678812795099</v>
+        <v>61.16788127951006</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869877</v>
+        <v>52.26228422869868</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.5117186242116</v>
+        <v>25.51171862421162</v>
       </c>
       <c r="M4" t="n">
-        <v>94.28407156335777</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>359.0170241388116</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,16 +27433,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>66.24815427420879</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27461,16 +27461,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.58413498891014</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>51.82184260583252</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.43647763297656</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>119.717622521497</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27622,19 +27622,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>309.8056183871113</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>17.53137685915118</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,19 +27698,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.58413498891014</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>78.51903480791989</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>124.9310703838087</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>99.71558964164933</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>159.9411142613562</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>138.0889794188841</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>51.05261375598208</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>136.9506567362057</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28023,7 +28023,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>105.5065508176662</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28065,13 +28065,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,40 +28087,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J11" t="n">
-        <v>109.921145523782</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>109.921145523782</v>
+        <v>23.37415036050524</v>
       </c>
       <c r="L11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M11" t="n">
-        <v>23.37415036050476</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="12">
@@ -28178,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>88.96491619802941</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88.96491619802981</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>109.921145523782</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.37415036050389</v>
+        <v>23.37415036050527</v>
       </c>
       <c r="R14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.96491619802933</v>
       </c>
       <c r="H15" t="n">
-        <v>21.26645374119019</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="17">
@@ -28600,16 +28600,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
+        <v>120.8806788490496</v>
+      </c>
+      <c r="R17" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="R17" t="n">
-        <v>120.8806788490486</v>
       </c>
       <c r="S17" t="n">
         <v>171.0890268032919</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.77848998202552</v>
       </c>
       <c r="T18" t="n">
-        <v>88.96491619802988</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28722,10 +28722,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>151.6212676204369</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>170.4798614861058</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -28822,13 +28822,13 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>120.8806788490494</v>
+      </c>
+      <c r="L20" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="K20" t="n">
-        <v>120.880678849049</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>21.26645374119019</v>
+        <v>21.26645374118976</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -28968,13 +28968,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>154.205158764758</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>161.0282291087964</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29059,28 +29059,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>120.8806788490494</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="K23" t="n">
-        <v>120.8806788490494</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>171.0890268032919</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>88.96491619802943</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>170.4798614861059</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7610139533483</v>
+        <v>146.0103242936257</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29299,7 +29299,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>105.8703697943546</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943557</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29533,7 +29533,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943556</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
@@ -29545,7 +29545,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="N29" t="n">
-        <v>105.8703697943548</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550348</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="K32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="N32" t="n">
-        <v>61.88025498773737</v>
+        <v>141.735890147585</v>
       </c>
       <c r="O32" t="n">
-        <v>141.7358901475851</v>
+        <v>61.88025498773771</v>
       </c>
       <c r="P32" t="n">
-        <v>141.7358901475851</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.7358901475851</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.56549128550337</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J34" t="n">
-        <v>141.7358901475851</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>123.7304477588629</v>
+        <v>141.735890147585</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>64.27378155889429</v>
       </c>
       <c r="Q34" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.7358901475851</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9787331327012</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30028,10 +30028,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30168,10 +30168,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>40.58157162934887</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550405</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,22 +30481,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>14.56549128550395</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>156.7562383106678</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.99522435731956</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30718,7 +30718,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,22 +30727,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
-        <v>40.58157162934964</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30879,7 +30879,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.51240011197667</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.83758476280147</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>368.920983352509</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>224.8315284198791</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>325.835197170449</v>
       </c>
       <c r="N3" t="n">
-        <v>335.6939994978676</v>
+        <v>499.7914826407787</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>141.54993438169</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.09581914387165</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>499.7914826407787</v>
       </c>
       <c r="O6" t="n">
-        <v>167.6944611901522</v>
+        <v>21.91235059408864</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,7 +35261,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>128.0558564371606</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.6469478195453</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>352.4871778922494</v>
+        <v>265.9401827289727</v>
       </c>
       <c r="L11" t="n">
         <v>461.3205122762529</v>
       </c>
       <c r="M11" t="n">
-        <v>420.5854294040279</v>
+        <v>507.1324245673051</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
@@ -35428,10 +35428,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>205.3072603586678</v>
       </c>
       <c r="R11" t="n">
-        <v>20.18924188467679</v>
+        <v>20.18924188467673</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>155.8986043485981</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.46447932381297</v>
+        <v>50.46447932381292</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8647695082703</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L13" t="n">
         <v>211.5444580492966</v>
       </c>
       <c r="M13" t="n">
-        <v>229.1065052486322</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N13" t="n">
         <v>229.5396725435803</v>
       </c>
       <c r="O13" t="n">
-        <v>209.3793743073069</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P13" t="n">
-        <v>173.525674542103</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.76917759093412</v>
+        <v>71.76917759093406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>507.1324245673052</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>492.0740330871313</v>
+        <v>492.0740330871311</v>
       </c>
       <c r="O14" t="n">
-        <v>418.0065843852305</v>
+        <v>418.0065843852303</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>340.3826570955528</v>
       </c>
       <c r="Q14" t="n">
-        <v>118.7602651953897</v>
+        <v>118.7602651953911</v>
       </c>
       <c r="R14" t="n">
-        <v>20.18924188467686</v>
+        <v>20.1892418846767</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>354.4697549981265</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.46447932381304</v>
+        <v>50.46447932381289</v>
       </c>
       <c r="K16" t="n">
-        <v>143.8647695082703</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L16" t="n">
-        <v>211.5444580492967</v>
+        <v>211.5444580492965</v>
       </c>
       <c r="M16" t="n">
-        <v>229.1065052486323</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.5396725435804</v>
+        <v>229.5396725435803</v>
       </c>
       <c r="O16" t="n">
-        <v>209.379374307307</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P16" t="n">
-        <v>173.525674542103</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.76917759093419</v>
+        <v>71.76917759093404</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,16 +35896,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>479.1744656647404</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>401.5505383750628</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.4751416381778</v>
+        <v>216.2667936839354</v>
       </c>
       <c r="R17" t="n">
-        <v>31.14877520994345</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35969,7 +35969,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>474.885419988138</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.45524801062321</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36018,10 +36018,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.169216960355442</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.0800933799219984</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -36030,7 +36030,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.249310340277335</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>363.4467112175164</v>
+        <v>363.4467112175168</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>522.4883935557629</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>216.7613786244629</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36264,13 +36264,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.249310340277335</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.249310340277443</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>363.4467112175168</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>518.0919578925726</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>266.4751416381778</v>
       </c>
       <c r="R23" t="n">
         <v>81.35712316418676</v>
@@ -36452,10 +36452,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>229.2373586066875</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36504,13 +36504,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.249310340277443</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>348.436402162822</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36607,16 +36607,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>336.3318813661266</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.155967803972</v>
+        <v>178.5961720901188</v>
       </c>
       <c r="K29" t="n">
         <v>355.9961978766761</v>
@@ -36841,7 +36841,7 @@
         <v>510.6414445517319</v>
       </c>
       <c r="N29" t="n">
-        <v>488.023257357704</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
         <v>421.5156043696572</v>
@@ -37072,25 +37072,25 @@
         <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>493.135256900056</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>538.9471691911082</v>
       </c>
       <c r="N32" t="n">
-        <v>444.0331425510866</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
-        <v>449.8213290090335</v>
+        <v>369.9656938491862</v>
       </c>
       <c r="P32" t="n">
-        <v>372.197401719356</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824709</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>52.00398650847987</v>
+        <v>52.00398650847984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.27922394761606</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>175.6795141320733</v>
@@ -37233,7 +37233,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>242.9158074837132</v>
+        <v>260.9212498724353</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
@@ -37242,7 +37242,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>127.8783105772153</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.7045354284645</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37324,10 +37324,10 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62924081444127</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978163</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,13 +37555,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37622,7 +37622,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496852</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5447655011685</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.99522435731956</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>133.1805840821698</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284641</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0430832011206</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>65.45602409646497</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.68561682995361</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
